--- a/data/곡물 종합 데이터.xlsx
+++ b/data/곡물 종합 데이터.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\a조 팀프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madda\.ssh\project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652242E-F59D-48B9-A187-82C36C8C0C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,14 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J400" sqref="J400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -403,7 +404,7 @@
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A2" s="1">
         <v>44470</v>
       </c>
@@ -443,7 +444,7 @@
         <v>136040</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A3" s="1">
         <v>44470</v>
       </c>
@@ -463,7 +464,7 @@
         <v>195830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A4" s="1">
         <v>44470</v>
       </c>
@@ -483,7 +484,7 @@
         <v>218676</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A5" s="1">
         <v>44473</v>
       </c>
@@ -503,7 +504,7 @@
         <v>90693</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A6" s="1">
         <v>44473</v>
       </c>
@@ -523,7 +524,7 @@
         <v>194154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A7" s="1">
         <v>44473</v>
       </c>
@@ -543,7 +544,7 @@
         <v>190972</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A8" s="1">
         <v>44474</v>
       </c>
@@ -563,7 +564,7 @@
         <v>73653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A9" s="1">
         <v>44474</v>
       </c>
@@ -583,7 +584,7 @@
         <v>187562</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A10" s="1">
         <v>44474</v>
       </c>
@@ -603,7 +604,7 @@
         <v>197143</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A11" s="1">
         <v>44475</v>
       </c>
@@ -623,7 +624,7 @@
         <v>69241</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A12" s="1">
         <v>44475</v>
       </c>
@@ -643,7 +644,7 @@
         <v>145092</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A13" s="1">
         <v>44475</v>
       </c>
@@ -663,7 +664,7 @@
         <v>195671</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A14" s="1">
         <v>44476</v>
       </c>
@@ -683,7 +684,7 @@
         <v>74107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A15" s="1">
         <v>44476</v>
       </c>
@@ -703,7 +704,7 @@
         <v>222330</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A16" s="1">
         <v>44476</v>
       </c>
@@ -723,7 +724,7 @@
         <v>162499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A17" s="1">
         <v>44477</v>
       </c>
@@ -743,7 +744,7 @@
         <v>82016</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A18" s="1">
         <v>44477</v>
       </c>
@@ -763,7 +764,7 @@
         <v>261196</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A19" s="1">
         <v>44477</v>
       </c>
@@ -783,7 +784,7 @@
         <v>152380</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A20" s="1">
         <v>44480</v>
       </c>
@@ -803,7 +804,7 @@
         <v>52351</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A21" s="1">
         <v>44480</v>
       </c>
@@ -823,7 +824,7 @@
         <v>179630</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A22" s="1">
         <v>44480</v>
       </c>
@@ -843,7 +844,7 @@
         <v>153346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A23" s="1">
         <v>44481</v>
       </c>
@@ -863,7 +864,7 @@
         <v>94528</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A24" s="1">
         <v>44481</v>
       </c>
@@ -883,7 +884,7 @@
         <v>320741</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A25" s="1">
         <v>44481</v>
       </c>
@@ -903,7 +904,7 @@
         <v>285413</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A26" s="1">
         <v>44482</v>
       </c>
@@ -923,7 +924,7 @@
         <v>91120</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A27" s="1">
         <v>44482</v>
       </c>
@@ -943,7 +944,7 @@
         <v>342520</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A28" s="1">
         <v>44482</v>
       </c>
@@ -963,7 +964,7 @@
         <v>318594</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A29" s="1">
         <v>44483</v>
       </c>
@@ -983,7 +984,7 @@
         <v>69465</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A30" s="1">
         <v>44483</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>246040</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A31" s="1">
         <v>44483</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>238865</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A32" s="1">
         <v>44484</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>63799</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A33" s="1">
         <v>44484</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>217799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A34" s="1">
         <v>44484</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>200043</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A35" s="1">
         <v>44487</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>51941</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A36" s="1">
         <v>44487</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>173485</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A37" s="1">
         <v>44487</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>174073</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A38" s="1">
         <v>44488</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>60184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A39" s="1">
         <v>44488</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>262071</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A40" s="1">
         <v>44488</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>196544</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A41" s="1">
         <v>44489</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>61700</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A42" s="1">
         <v>44489</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>253644</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A43" s="1">
         <v>44489</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>205454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A44" s="1">
         <v>44490</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A45" s="1">
         <v>44490</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>203093</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A46" s="1">
         <v>44490</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>216171</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A47" s="1">
         <v>44491</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>82587</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A48" s="1">
         <v>44491</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>218551</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A49" s="1">
         <v>44491</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>179699</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A50" s="1">
         <v>44494</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>76172</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A51" s="1">
         <v>44494</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>240954</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A52" s="1">
         <v>44494</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>159732</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A53" s="1">
         <v>44495</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>92945</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A54" s="1">
         <v>44495</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>197991</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A55" s="1">
         <v>44495</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>232270</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A56" s="1">
         <v>44496</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>86218</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A57" s="1">
         <v>44496</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>336101</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A58" s="1">
         <v>44496</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>386199</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A59" s="1">
         <v>44497</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>93079</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A60" s="1">
         <v>44497</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>253879</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A61" s="1">
         <v>44497</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>279975</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A62" s="1">
         <v>44498</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>85271</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A63" s="1">
         <v>44498</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>147939</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A64" s="1">
         <v>44498</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>230212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A65" s="1">
         <v>44501</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>125719</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A66" s="1">
         <v>44501</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>147483</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A67" s="1">
         <v>44501</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>336033</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A68" s="1">
         <v>44502</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>114155</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A69" s="1">
         <v>44502</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>146089</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A70" s="1">
         <v>44502</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>305591</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A71" s="1">
         <v>44503</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>86548</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A72" s="1">
         <v>44503</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>137120</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A73" s="1">
         <v>44503</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>252968</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A74" s="1">
         <v>44504</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>95999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A75" s="1">
         <v>44504</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>175596</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A76" s="1">
         <v>44504</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>249549</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A77" s="1">
         <v>44505</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>153924</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A78" s="1">
         <v>44505</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>149904</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A79" s="1">
         <v>44505</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>331940</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A80" s="1">
         <v>44508</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>142464</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A81" s="1">
         <v>44508</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>187858</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A82" s="1">
         <v>44508</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>278647</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A83" s="1">
         <v>44509</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>149224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A84" s="1">
         <v>44509</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>246990</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A85" s="1">
         <v>44509</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>422228</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A86" s="1">
         <v>44510</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>162284</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>150154</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A88" s="1">
         <v>44510</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>355402</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A89" s="1">
         <v>44511</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>210606</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A90" s="1">
         <v>44511</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>131199</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A91" s="1">
         <v>44511</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>480041</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A92" s="1">
         <v>44512</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>133635</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A93" s="1">
         <v>44512</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>189810</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A94" s="1">
         <v>44512</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>316463</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A95" s="1">
         <v>44515</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>140625</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A96" s="1">
         <v>44515</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>156324</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A97" s="1">
         <v>44515</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>249494</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A98" s="1">
         <v>44516</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>140262</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A99" s="1">
         <v>44516</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>128298</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A100" s="1">
         <v>44516</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>291261</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A101" s="1">
         <v>44517</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>149017</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A102" s="1">
         <v>44517</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>269607</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A103" s="1">
         <v>44517</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>369346</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A104" s="1">
         <v>44518</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>156994</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A105" s="1">
         <v>44518</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>187096</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A106" s="1">
         <v>44518</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>349865</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A107" s="1">
         <v>44519</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>119967</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A108" s="1">
         <v>44519</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>136121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A109" s="1">
         <v>44519</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>245124</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A110" s="1">
         <v>44522</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>129198</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A111" s="1">
         <v>44522</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>118439</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A112" s="1">
         <v>44522</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>351292</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A113" s="1">
         <v>44523</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>101918</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A114" s="1">
         <v>44523</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>115543</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A115" s="1">
         <v>44523</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>355458</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A116" s="1">
         <v>44524</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>152674</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A117" s="1">
         <v>44524</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>114240</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A118" s="1">
         <v>44524</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>544673</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A119" s="1">
         <v>44526</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>91487</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A120" s="1">
         <v>44526</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>144199</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A121" s="1">
         <v>44526</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>385148</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A122" s="1">
         <v>44529</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>114890</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A123" s="1">
         <v>44529</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>136255</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A124" s="1">
         <v>44529</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>445948</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A125" s="1">
         <v>44530</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>134475</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A126" s="1">
         <v>44530</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>223811</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A127" s="1">
         <v>44530</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>398992</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A128" s="1">
         <v>44531</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>85465</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A129" s="1">
         <v>44531</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>192461</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A130" s="1">
         <v>44531</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>244415</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A131" s="1">
         <v>44532</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>107700</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A132" s="1">
         <v>44532</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>176586</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A133" s="1">
         <v>44532</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>281990</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A134" s="1">
         <v>44533</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>93449</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A135" s="1">
         <v>44533</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>168752</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A136" s="1">
         <v>44533</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>231864</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A137" s="1">
         <v>44536</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>61952</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A138" s="1">
         <v>44536</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>141581</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A139" s="1">
         <v>44536</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>156981</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A140" s="1">
         <v>44537</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>56961</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A141" s="1">
         <v>44537</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>318131</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A142" s="1">
         <v>44537</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>193336</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A143" s="1">
         <v>44538</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>62193</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A144" s="1">
         <v>44538</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>207490</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A145" s="1">
         <v>44538</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>162975</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A146" s="1">
         <v>44539</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>103080</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A147" s="1">
         <v>44539</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>196186</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A148" s="1">
         <v>44539</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>245968</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A149" s="1">
         <v>44540</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>58900</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A150" s="1">
         <v>44540</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>204892</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A151" s="1">
         <v>44540</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>127759</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A152" s="1">
         <v>44543</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>58121</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A153" s="1">
         <v>44543</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>198136</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A154" s="1">
         <v>44543</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>165227</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A155" s="1">
         <v>44544</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>49448</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A156" s="1">
         <v>44544</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>203556</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A157" s="1">
         <v>44544</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>165683</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A158" s="1">
         <v>44545</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>113861</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A159" s="1">
         <v>44545</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>195002</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A160" s="1">
         <v>44545</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>218461</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A161" s="1">
         <v>44546</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>76596</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A162" s="1">
         <v>44546</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>243197</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A163" s="1">
         <v>44546</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>146232</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A164" s="1">
         <v>44547</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>57461</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A165" s="1">
         <v>44547</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>263212</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A166" s="1">
         <v>44547</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>183689</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A167" s="1">
         <v>44550</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>60036</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A168" s="1">
         <v>44550</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>171974</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A169" s="1">
         <v>44550</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>156651</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A170" s="1">
         <v>44551</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>79597</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A171" s="1">
         <v>44551</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>218625</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A172" s="1">
         <v>44551</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>169897</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A173" s="1">
         <v>44552</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>75516</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A174" s="1">
         <v>44552</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>206115</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A175" s="1">
         <v>44552</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>239115</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A176" s="1">
         <v>44553</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>56805</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A177" s="1">
         <v>44553</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>187461</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A178" s="1">
         <v>44553</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>164584</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A179" s="1">
         <v>44557</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A180" s="1">
         <v>44557</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>201314</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A181" s="1">
         <v>44557</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>194211</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A182" s="1">
         <v>44558</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>65492</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A183" s="1">
         <v>44558</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>185460</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A184" s="1">
         <v>44558</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>193925</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A185" s="1">
         <v>44559</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>59045</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A186" s="1">
         <v>44559</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>202712</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A187" s="1">
         <v>44559</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>182856</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A188" s="1">
         <v>44560</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A189" s="1">
         <v>44560</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>174096</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A190" s="1">
         <v>44560</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>189659</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A191" s="1">
         <v>44561</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>40566</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A192" s="1">
         <v>44561</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>93478</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A193" s="1">
         <v>44561</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>105671</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A194" s="1">
         <v>44564</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>63703</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A195" s="1">
         <v>44564</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>141277</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A196" s="1">
         <v>44564</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>218153</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A197" s="1">
         <v>44565</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>71070</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A198" s="1">
         <v>44565</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>205915</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A199" s="1">
         <v>44565</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>330383</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A200" s="1">
         <v>44566</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>61279</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A201" s="1">
         <v>44566</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>162431</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A202" s="1">
         <v>44566</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>226799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A203" s="1">
         <v>44567</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>95324</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A204" s="1">
         <v>44567</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>169938</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A205" s="1">
         <v>44567</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>228684</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A206" s="1">
         <v>44568</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>97513</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A207" s="1">
         <v>44568</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>222175</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A208" s="1">
         <v>44568</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>233261</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A209" s="1">
         <v>44571</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>75988</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A210" s="1">
         <v>44571</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>205376</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A211" s="1">
         <v>44571</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>229962</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A212" s="1">
         <v>44572</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>70988</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A213" s="1">
         <v>44572</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>159074</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A214" s="1">
         <v>44572</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>215642</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A215" s="1">
         <v>44573</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>90704</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A216" s="1">
         <v>44573</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>194818</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A217" s="1">
         <v>44573</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>316963</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A218" s="1">
         <v>44574</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>93026</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A219" s="1">
         <v>44574</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>184945</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A220" s="1">
         <v>44574</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>332079</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A221" s="1">
         <v>44575</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>77272</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A222" s="1">
         <v>44575</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>144657</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A223" s="1">
         <v>44575</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>236804</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A224" s="1">
         <v>44579</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>114798</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A225" s="1">
         <v>44579</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>188826</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A226" s="1">
         <v>44579</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>229445</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A227" s="1">
         <v>44580</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>125077</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A228" s="1">
         <v>44580</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>161743</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A229" s="1">
         <v>44580</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>306915</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A230" s="1">
         <v>44581</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>109011</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A231" s="1">
         <v>44581</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>269773</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A232" s="1">
         <v>44581</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>211828</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A233" s="1">
         <v>44582</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>80645</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A234" s="1">
         <v>44582</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>176775</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A235" s="1">
         <v>44582</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>312135</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A236" s="1">
         <v>44585</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>97207</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A237" s="1">
         <v>44585</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>207054</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A238" s="1">
         <v>44585</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>322991</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A239" s="1">
         <v>44586</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>141515</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A240" s="1">
         <v>44586</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>176063</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A241" s="1">
         <v>44586</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>524074</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A242" s="1">
         <v>44587</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>117081</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A243" s="1">
         <v>44587</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>242101</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A244" s="1">
         <v>44587</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>307894</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A245" s="1">
         <v>44588</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>89877</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A246" s="1">
         <v>44588</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>268810</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A247" s="1">
         <v>44588</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>267612</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A248" s="1">
         <v>44589</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>74699</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A249" s="1">
         <v>44589</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>297906</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A250" s="1">
         <v>44589</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>343197</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A251" s="1">
         <v>44592</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>105840</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A252" s="1">
         <v>44592</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>201237</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A253" s="1">
         <v>44592</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>447850</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A254" s="1">
         <v>44593</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>87999</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A255" s="1">
         <v>44593</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>320261</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A256" s="1">
         <v>44593</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>343747</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A257" s="1">
         <v>44594</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>108872</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A258" s="1">
         <v>44594</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>343426</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A259" s="1">
         <v>44594</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>500407</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A260" s="1">
         <v>44595</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>87061</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A261" s="1">
         <v>44595</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>247586</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A262" s="1">
         <v>44595</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>416525</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A263" s="1">
         <v>44595</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>416525</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A264" s="1">
         <v>44596</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>92190</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A265" s="1">
         <v>44596</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>223678</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A266" s="1">
         <v>44596</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>338499</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A267" s="1">
         <v>44599</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>151463</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A268" s="1">
         <v>44599</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>329455</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A269" s="1">
         <v>44599</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>420932</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A270" s="1">
         <v>44600</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>180024</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A271" s="1">
         <v>44600</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>308703</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A272" s="1">
         <v>44600</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>368906</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A273" s="1">
         <v>44601</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>187400</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A274" s="1">
         <v>44601</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>367057</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A275" s="1">
         <v>44601</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>633726</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A276" s="1">
         <v>44602</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>179755</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A277" s="1">
         <v>44602</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>497203</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A278" s="1">
         <v>44602</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>702438</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A279" s="1">
         <v>44603</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>181949</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A280" s="1">
         <v>44603</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>344661</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A281" s="1">
         <v>44603</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>471582</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A282" s="1">
         <v>44606</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>150203</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A283" s="1">
         <v>44606</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>247879</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A284" s="1">
         <v>44606</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>314309</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A285" s="1">
         <v>44607</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>127264</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A286" s="1">
         <v>44607</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>292711</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A287" s="1">
         <v>44607</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>375862</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A288" s="1">
         <v>44608</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>82389</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A289" s="1">
         <v>44608</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>221572</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A290" s="1">
         <v>44608</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>253025</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A291" s="1">
         <v>44609</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>123870</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A292" s="1">
         <v>44609</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>237102</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A293" s="1">
         <v>44609</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>263265</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A294" s="1">
         <v>44610</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>117551</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A295" s="1">
         <v>44610</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>236545</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A296" s="1">
         <v>44610</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>342595</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A297" s="1">
         <v>44614</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>198204</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A298" s="1">
         <v>44614</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>326462</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A299" s="1">
         <v>44614</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>444168</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A300" s="1">
         <v>44615</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>201289</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A301" s="1">
         <v>44615</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>351365</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A302" s="1">
         <v>44615</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>449852</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A303" s="1">
         <v>44616</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A304" s="1">
         <v>44616</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>460742</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A305" s="1">
         <v>44616</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A306" s="1">
         <v>44617</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>209780</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A307" s="1">
         <v>44617</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>313354</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A308" s="1">
         <v>44617</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>541736</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A309" s="1">
         <v>44620</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>207565</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A310" s="1">
         <v>44620</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>199302</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A311" s="1">
         <v>44620</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>396799</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A312" s="1">
         <v>44621</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>148768</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A313" s="1">
         <v>44621</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>199335</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A314" s="1">
         <v>44621</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>436413</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A315" s="1">
         <v>44622</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>380891</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A316" s="1">
         <v>44622</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>188182</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A317" s="1">
         <v>44622</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>527805</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A318" s="1">
         <v>44623</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>257758</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A319" s="1">
         <v>44623</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>181889</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A320" s="1">
         <v>44623</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>482146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A321" s="1">
         <v>44624</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>213226</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A322" s="1">
         <v>44624</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>194093</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A323" s="1">
         <v>44624</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>581509</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A324" s="1">
         <v>44627</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>157860</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A325" s="1">
         <v>44627</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>153625</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A326" s="1">
         <v>44627</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>325002</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A327" s="1">
         <v>44628</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>259063</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A328" s="1">
         <v>44628</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>190642</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A329" s="1">
         <v>44628</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>337581</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A330" s="1">
         <v>44628</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>337581</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A331" s="1">
         <v>44629</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>131127</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A332" s="1">
         <v>44629</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>187440</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A333" s="1">
         <v>44629</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>255929</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A334" s="1">
         <v>44630</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>159853</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A335" s="1">
         <v>44630</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>182774</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A336" s="1">
         <v>44630</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>282665</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A337" s="1">
         <v>44631</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>111877</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A338" s="1">
         <v>44631</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>138612</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A339" s="1">
         <v>44631</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>201246</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A340" s="1">
         <v>44634</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>98705</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A341" s="1">
         <v>44634</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>116599</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A342" s="1">
         <v>44634</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>186921</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A343" s="1">
         <v>44635</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>76899</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A344" s="1">
         <v>44635</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>106953</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A345" s="1">
         <v>44635</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>170198</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A346" s="1">
         <v>44636</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>91023</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A347" s="1">
         <v>44636</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>98782</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A348" s="1">
         <v>44636</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>219176</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A349" s="1">
         <v>44637</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>75457</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A350" s="1">
         <v>44637</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>106296</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A351" s="1">
         <v>44637</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>168525</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A352" s="1">
         <v>44638</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>47622</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A353" s="1">
         <v>44638</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>114033</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A354" s="1">
         <v>44638</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>157085</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A355" s="1">
         <v>44641</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>83366</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A356" s="1">
         <v>44641</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>131656</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A357" s="1">
         <v>44641</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>215353</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A358" s="1">
         <v>44642</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>64228</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A359" s="1">
         <v>44642</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>132312</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A360" s="1">
         <v>44642</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>225455</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A361" s="1">
         <v>44643</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>52783</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A362" s="1">
         <v>44643</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>132082</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A363" s="1">
         <v>44643</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>232187</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A364" s="1">
         <v>44644</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>56664</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A365" s="1">
         <v>44644</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>134336</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A366" s="1">
         <v>44644</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>193879</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A367" s="1">
         <v>44645</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>61281</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A368" s="1">
         <v>44645</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>109639</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A369" s="1">
         <v>44645</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>147204</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A370" s="1">
         <v>44648</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>62998</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A371" s="1">
         <v>44648</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>140664</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A372" s="1">
         <v>44648</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>182540</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A373" s="1">
         <v>44649</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>98999</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A374" s="1">
         <v>44649</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>184192</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A375" s="1">
         <v>44649</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>431003</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A376" s="1">
         <v>44650</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>63790</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A377" s="1">
         <v>44650</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>122632</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A378" s="1">
         <v>44650</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>215008</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A379" s="1">
         <v>44651</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>79477</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A380" s="1">
         <v>44651</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>214352</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A381" s="1">
         <v>44651</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>493589</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A382" s="1">
         <v>44651</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>79477</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A383" s="1">
         <v>44652</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>74594</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A384" s="1">
         <v>44652</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>210339</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A385" s="1">
         <v>44652</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>38484</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A386" s="1">
         <v>44655</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>68291</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A387" s="1">
         <v>44655</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>148177</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A388" s="1">
         <v>44655</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>285036</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A389" s="1">
         <v>44656</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>75920</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A390" s="1">
         <v>44656</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>132965</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A391" s="1">
         <v>44656</v>
       </c>
@@ -8221,6 +8222,366 @@
       </c>
       <c r="F391">
         <v>307681</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A392" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392">
+        <v>385.62</v>
+      </c>
+      <c r="D392">
+        <v>382.5</v>
+      </c>
+      <c r="E392">
+        <v>381.49</v>
+      </c>
+      <c r="F392">
+        <v>73280</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A393" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>598.91</v>
+      </c>
+      <c r="D393">
+        <v>594.69000000000005</v>
+      </c>
+      <c r="E393">
+        <v>595.04999999999995</v>
+      </c>
+      <c r="F393">
+        <v>143816</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A394" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="D394">
+        <v>297.63</v>
+      </c>
+      <c r="E394">
+        <v>297.82</v>
+      </c>
+      <c r="F394">
+        <v>254781</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A395" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B395" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395">
+        <v>382.22</v>
+      </c>
+      <c r="D395">
+        <v>374.96</v>
+      </c>
+      <c r="E395">
+        <v>374.78</v>
+      </c>
+      <c r="F395">
+        <v>104965</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A396" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>595.24</v>
+      </c>
+      <c r="D396">
+        <v>603.6</v>
+      </c>
+      <c r="E396">
+        <v>604.61</v>
+      </c>
+      <c r="F396">
+        <v>211859</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A397" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397">
+        <v>297.52999999999997</v>
+      </c>
+      <c r="D397">
+        <v>298.41000000000003</v>
+      </c>
+      <c r="E397">
+        <v>298.32</v>
+      </c>
+      <c r="F397">
+        <v>306246</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A398" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B398" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398">
+        <v>374.78</v>
+      </c>
+      <c r="D398">
+        <v>385.62</v>
+      </c>
+      <c r="E398">
+        <v>386.35</v>
+      </c>
+      <c r="F398">
+        <v>104508</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A399" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>605.42999999999995</v>
+      </c>
+      <c r="D399">
+        <v>620.5</v>
+      </c>
+      <c r="E399">
+        <v>620.59</v>
+      </c>
+      <c r="F399">
+        <v>215917</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A400" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>298.02</v>
+      </c>
+      <c r="D400">
+        <v>302.14999999999998</v>
+      </c>
+      <c r="E400">
+        <v>302.64999999999998</v>
+      </c>
+      <c r="F400">
+        <v>357347</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A401" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>388.01</v>
+      </c>
+      <c r="D401">
+        <v>396.46</v>
+      </c>
+      <c r="E401">
+        <v>397.28</v>
+      </c>
+      <c r="F401">
+        <v>136943</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A402" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>621.33000000000004</v>
+      </c>
+      <c r="D402">
+        <v>609.20000000000005</v>
+      </c>
+      <c r="E402">
+        <v>608.19000000000005</v>
+      </c>
+      <c r="F402">
+        <v>212956</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A403" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>301.95999999999998</v>
+      </c>
+      <c r="D403">
+        <v>301.17</v>
+      </c>
+      <c r="E403">
+        <v>300.97000000000003</v>
+      </c>
+      <c r="F403">
+        <v>344100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A404" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404">
+        <v>396</v>
+      </c>
+      <c r="D404">
+        <v>404.91</v>
+      </c>
+      <c r="E404">
+        <v>405.55</v>
+      </c>
+      <c r="F404">
+        <v>117840</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A405" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>609.48</v>
+      </c>
+      <c r="D405">
+        <v>613.61</v>
+      </c>
+      <c r="E405">
+        <v>613.70000000000005</v>
+      </c>
+      <c r="F405">
+        <v>204202</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A406" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406">
+        <v>301.37</v>
+      </c>
+      <c r="D406">
+        <v>305.11</v>
+      </c>
+      <c r="E406">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="F406">
+        <v>339229</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A407" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B407" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407">
+        <v>405.09</v>
+      </c>
+      <c r="D407">
+        <v>409.69</v>
+      </c>
+      <c r="E407">
+        <v>409.13</v>
+      </c>
+      <c r="F407">
+        <v>132978</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A408" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>614.44000000000005</v>
+      </c>
+      <c r="D408">
+        <v>614.07000000000005</v>
+      </c>
+      <c r="E408">
+        <v>615.80999999999995</v>
+      </c>
+      <c r="F408">
+        <v>223967</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A409" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <v>305.11</v>
+      </c>
+      <c r="D409">
+        <v>308.35000000000002</v>
+      </c>
+      <c r="E409">
+        <v>308.45</v>
+      </c>
+      <c r="F409">
+        <v>395446</v>
       </c>
     </row>
   </sheetData>
